--- a/simulation_data/one_step_algorithm/1s_error_level_6_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_6_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.82452570600732</v>
+        <v>90.00727742792211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.702476640729451</v>
+        <v>0.7407061761232063</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.01917014061577</v>
+        <v>89.08887292400559</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8198867173770507</v>
+        <v>0.6892980201402854</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.00587233562712</v>
+        <v>88.10128144994371</v>
       </c>
       <c r="D4" t="n">
-        <v>0.769119597437113</v>
+        <v>0.7588989562408134</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.97191083556116</v>
+        <v>87.09217920168086</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6931398344495805</v>
+        <v>0.7540964097865546</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.00868476534846</v>
+        <v>85.89653708085129</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7692490457562624</v>
+        <v>0.7691187442005913</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.02482998018748</v>
+        <v>85.06273760368232</v>
       </c>
       <c r="D7" t="n">
-        <v>0.799918613438243</v>
+        <v>0.7998683828897891</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.99478544674484</v>
+        <v>83.96755729394384</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8061894324035598</v>
+        <v>0.7679303117180455</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.92241043343658</v>
+        <v>82.97627841134057</v>
       </c>
       <c r="D9" t="n">
-        <v>0.820762329561861</v>
+        <v>0.7158848287743905</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.9213241227952</v>
+        <v>81.99227784546781</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7430198533532476</v>
+        <v>0.8323359043879488</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.99683961490734</v>
+        <v>81.02694514275714</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6952158887847857</v>
+        <v>0.7797756070907241</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.96019290980108</v>
+        <v>80.08996267086054</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7168099796875667</v>
+        <v>0.7512512677080818</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.05769546496161</v>
+        <v>78.99078718988657</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8133321966329761</v>
+        <v>0.8014176291441689</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.9057004533021</v>
+        <v>77.96766451982039</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7752344285329078</v>
+        <v>0.7781739311564981</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.84645702683382</v>
+        <v>76.92061025589027</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7788432953477753</v>
+        <v>0.8004791136439139</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.13239225023148</v>
+        <v>75.94638743888056</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7212591817530363</v>
+        <v>0.8061494639360731</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.01453864221527</v>
+        <v>74.9835097019342</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7423473731350688</v>
+        <v>0.7549350374806419</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.02627953040869</v>
+        <v>74.01027466761842</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7092721915426649</v>
+        <v>0.7069833271017542</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.98609665877689</v>
+        <v>72.98966499620649</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7596312662328555</v>
+        <v>0.8140346182087876</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.19333666809865</v>
+        <v>72.05897475630728</v>
       </c>
       <c r="D20" t="n">
-        <v>0.796049054375229</v>
+        <v>0.8588771275179278</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.09442930657885</v>
+        <v>70.93296434535763</v>
       </c>
       <c r="D21" t="n">
-        <v>0.704835322641935</v>
+        <v>0.7647105569464715</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.9733296649521</v>
+        <v>70.01330651461988</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7020710185703244</v>
+        <v>0.7588764851991895</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.04454351095123</v>
+        <v>69.02725704554024</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6712520276571936</v>
+        <v>0.8136960345784232</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.99781497631946</v>
+        <v>67.84803243023318</v>
       </c>
       <c r="D24" t="n">
-        <v>0.791855153410756</v>
+        <v>0.6893395292319444</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.97892152512888</v>
+        <v>66.90024648573456</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7350850944531212</v>
+        <v>0.7068620718406207</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.86574974986067</v>
+        <v>65.99062063373914</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7602553996108657</v>
+        <v>0.7542416007209124</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.92421105181155</v>
+        <v>65.08083811419557</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6847958641932245</v>
+        <v>0.804860941684676</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.92780562744767</v>
+        <v>63.94692741919036</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6968043244459265</v>
+        <v>0.7376496082355046</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.98188055839793</v>
+        <v>63.0228194807079</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7454360855412058</v>
+        <v>0.8039723622086647</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.04872842414002</v>
+        <v>61.97746812823716</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7755714163959512</v>
+        <v>0.7435132886822586</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.90706241068294</v>
+        <v>61.06525899209134</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6984402178702103</v>
+        <v>0.7387546583566232</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.1236873920647</v>
+        <v>59.94649119354145</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7305597103818899</v>
+        <v>0.7386815066610958</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.98949881105689</v>
+        <v>58.99343408567179</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7875770032840957</v>
+        <v>0.8491956334429134</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.03327588195435</v>
+        <v>58.10805072718131</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7709472074564437</v>
+        <v>0.7967233018274277</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.99278810731435</v>
+        <v>56.94019915534077</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7293142800315938</v>
+        <v>0.8374220811508837</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.05995754012702</v>
+        <v>56.05095924330885</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7038931463570081</v>
+        <v>0.8114714241062156</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.01910760732449</v>
+        <v>55.07442985251324</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7983028431636009</v>
+        <v>0.6678417174145487</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.92087643601508</v>
+        <v>54.01300777682027</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7735533386948015</v>
+        <v>0.7522459838961448</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.96173097544582</v>
+        <v>53.01890705704717</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6888429296111197</v>
+        <v>0.7093613716715639</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.11768037115435</v>
+        <v>51.96690403397616</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7250012189298304</v>
+        <v>0.7266872633101923</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.90120001616484</v>
+        <v>51.07153491084085</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7701790465124883</v>
+        <v>0.7135111972547543</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.96412364277904</v>
+        <v>50.0034361752223</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6837110526146687</v>
+        <v>0.6941661394888783</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.94167448295286</v>
+        <v>49.09027156016554</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7005906688201752</v>
+        <v>0.7104343788496852</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.03182958722158</v>
+        <v>48.07308658219669</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8555652287077007</v>
+        <v>0.7865098136095448</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.05822179043525</v>
+        <v>47.016445842478</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7126404624558716</v>
+        <v>0.6657867217430916</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.06002871279392</v>
+        <v>45.99969914259707</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8083221933469559</v>
+        <v>0.7891874211279918</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.86340558590501</v>
+        <v>45.06729322461442</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7162489697083599</v>
+        <v>0.7485219336249979</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.01000503265569</v>
+        <v>43.94044328741737</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8645999350675531</v>
+        <v>0.8033317088910876</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.96848603488964</v>
+        <v>43.00483899630738</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7122681150111261</v>
+        <v>0.7101335463962274</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.02274075536808</v>
+        <v>42.08880036478959</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6215481582859713</v>
+        <v>0.7686654636161098</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.13696087821042</v>
+        <v>40.9535713436318</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7049830354549421</v>
+        <v>0.6818544594710994</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.06173495208489</v>
+        <v>39.93857451989331</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6964207805409421</v>
+        <v>0.7438318500273946</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.00695624581015</v>
+        <v>38.93525129502591</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7238052654982616</v>
+        <v>0.7401502116040809</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.0670685744087</v>
+        <v>38.01596853495997</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8366083854881068</v>
+        <v>0.7449409313321501</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.03178830772251</v>
+        <v>36.92498275385182</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6742528620373811</v>
+        <v>0.6395385225504497</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.03468676469019</v>
+        <v>36.02553958772963</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8600577846975589</v>
+        <v>0.6451197316625996</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.12667222683477</v>
+        <v>34.94844613682387</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7414377184619556</v>
+        <v>0.6579645428523504</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.9810459490446</v>
+        <v>34.08538517217681</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7169410291153107</v>
+        <v>0.7116450406237207</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.19139775351933</v>
+        <v>32.98800350969977</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6889831388962298</v>
+        <v>0.7817719194864436</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.03520715117301</v>
+        <v>31.97448359565125</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6692862075871427</v>
+        <v>0.7703609937248381</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.94240106118453</v>
+        <v>31.0566999619102</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6855267371274644</v>
+        <v>0.7563675817831067</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.95777816059563</v>
+        <v>29.94201173258076</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7304472473396696</v>
+        <v>0.8213114665402731</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.0800900791313</v>
+        <v>28.95065181798978</v>
       </c>
       <c r="D63" t="n">
-        <v>0.829732772872266</v>
+        <v>0.7131062224822139</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.96974518234738</v>
+        <v>27.95868866914271</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6826964696822984</v>
+        <v>0.7070926743849417</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.03137737664456</v>
+        <v>27.08440138175785</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7666425377636991</v>
+        <v>0.7615857110228805</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.89677793917242</v>
+        <v>26.02991645854427</v>
       </c>
       <c r="D66" t="n">
-        <v>0.691296839603924</v>
+        <v>0.6910377491302541</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.96786149410835</v>
+        <v>24.86932630772046</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7546660564401775</v>
+        <v>0.8258560407715021</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.92273950819161</v>
+        <v>24.15518504533028</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6949644269469739</v>
+        <v>0.6871663952355856</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.09574610282572</v>
+        <v>23.08250360270783</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7208028101676269</v>
+        <v>0.6303839221014591</v>
       </c>
     </row>
   </sheetData>
